--- a/storage/app/temp/workers_model.xlsx
+++ b/storage/app/temp/workers_model.xlsx
@@ -36,16 +36,16 @@
     <t>password</t>
   </si>
   <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
     <t>area</t>
+  </si>
+  <si>
+    <t>category_id</t>
+  </si>
+  <si>
+    <t>country_id</t>
+  </si>
+  <si>
+    <t>city_id</t>
   </si>
 </sst>
 </file>
@@ -80,12 +80,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -101,13 +107,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -416,7 +425,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -425,36 +434,39 @@
     <col min="2" max="3" width="8.88671875" style="1"/>
     <col min="4" max="4" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.88671875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="18.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.3">

--- a/storage/app/temp/workers_model.xlsx
+++ b/storage/app/temp/workers_model.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>id</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>city_id</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -107,7 +110,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -117,6 +120,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -425,7 +429,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -471,6 +475,9 @@
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="C2" s="3"/>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="E2" s="2"/>
     </row>
   </sheetData>
